--- a/DataNV/Гуляйгродський.xlsx
+++ b/DataNV/Гуляйгродський.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="##0"/>
-    <numFmt numFmtId="165" formatCode="dd mm yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -30,34 +27,16 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00ffffff"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005a61f0"/>
-        <bgColor rgb="005a61f0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9FFE6"/>
-        <bgColor rgb="00E9FFE6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5FFC3"/>
-        <bgColor rgb="00F5FFC3"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,15 +51,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -456,12 +431,12 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="33" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
@@ -475,13 +450,13 @@
     <col width="20" customWidth="1" min="19" max="19"/>
     <col width="20" customWidth="1" min="20" max="20"/>
     <col width="18" customWidth="1" min="21" max="21"/>
-    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="24" customWidth="1" min="22" max="22"/>
     <col width="10" customWidth="1" min="23" max="23"/>
     <col width="17" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="10" customWidth="1" min="26" max="26"/>
     <col width="5" customWidth="1" min="27" max="27"/>
-    <col width="20" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -627,356 +602,348 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>12.07.2022</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>13:51:36</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>Заказ-наряд ЗНGA009432 от 12.07.2022 13:51:36</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>Согласование</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>14.07.2022 13:32:27</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>Діагностика</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="A2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>23.07.2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11:14:26</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026663 від 23.07.2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Погодження</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>23.07.2024 14:02:26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>очікуемо Погодження</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Технічне обслуговування</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Гуляйгродський В.Ю.</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Не проведен</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>174148.8</v>
-      </c>
-      <c r="L2" s="5" t="n">
-        <v>10309.25</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>145123.99</v>
-      </c>
-      <c r="N2" s="5" t="n">
-        <v>8591.049999999999</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>153715.04</v>
-      </c>
-      <c r="P2" s="5" t="n">
-        <v>58049.62</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>184458.05</v>
-      </c>
-      <c r="R2" s="5" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="S2" s="4" t="inlineStr">
-        <is>
-          <t>ПЕРША ЛІЗИНГОВА КОМПАНІЯ ТОВ</t>
-        </is>
-      </c>
-      <c r="T2" s="5" t="inlineStr">
-        <is>
-          <t>ПЕРША ЛІЗИНГОВА КОМПАНІЯ ТОВ</t>
-        </is>
-      </c>
-      <c r="U2" s="4" t="inlineStr">
-        <is>
-          <t>+38 (097) 724-08-48</t>
-        </is>
-      </c>
-      <c r="V2" s="5" t="inlineStr">
-        <is>
-          <t>KIA Rio 1.6 LX 6 A/T</t>
-        </is>
-      </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>КА6109НМ</t>
-        </is>
-      </c>
-      <c r="X2" s="5" t="inlineStr">
-        <is>
-          <t>Y6DC341BBNR256644</t>
-        </is>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Z2" s="5" t="inlineStr">
-        <is>
-          <t>13.01.2022</t>
-        </is>
-      </c>
-      <c r="AA2" s="4" t="inlineStr">
+      <c r="K2" t="n">
+        <v>9739.25</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1565.76</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8116.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1304.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9420.84</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3246.42</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>11305.01</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>АВТОЦЕНТР НА СТОЛИЧНОМУ, ФІЛІЯ ТОВ "УКРАЇНСЬКА АВТОМОБІЛЬНА КОРПОРАЦІЯ"</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Департамент патрульної поліції -ДПП</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>+38 (044) 2549488</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>TOYOTA COROLLA</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>119226</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>NMTBE9BE10R097535</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>203840</v>
+      </c>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="AB2" s="5" t="inlineStr">
-        <is>
-          <t>Юридическое лицо</t>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>02.08.2022</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>13:42:45</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Заказ-наряд ЗНGA009910 от 02.08.2022 13:42:45</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>В работе</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>07.08.2022 08:10:16</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>Діагностика</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="A3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30.07.2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15:04:40</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026853 від 30.07.2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Заявка</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>01.08.2024 11:23:00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Поточний ремонт</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Гуляйгродський В.Ю.</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Не проведен</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>35490.2</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <v>14850</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>29575.17</v>
-      </c>
-      <c r="N3" s="5" t="n">
-        <v>12375</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>41950.17</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>11830.06</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>50340.2</v>
-      </c>
-      <c r="R3" s="5" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="S3" s="4" t="inlineStr">
-        <is>
-          <t>ОЛЕЙНИК А.М.</t>
-        </is>
-      </c>
-      <c r="T3" s="5" t="inlineStr">
-        <is>
-          <t>ОЛЕЙНИК А.М.</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="inlineStr">
-        <is>
-          <t>+38 (068) 0122179</t>
-        </is>
-      </c>
-      <c r="V3" s="5" t="inlineStr">
-        <is>
-          <t>Forza Luxe</t>
-        </is>
-      </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>ВС8617НТ</t>
-        </is>
-      </c>
-      <c r="X3" s="5" t="inlineStr">
-        <is>
-          <t>Y6DAF6854C0011538</t>
-        </is>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>140000</v>
-      </c>
-      <c r="Z3" s="5" t="inlineStr">
-        <is>
-          <t>07.08.2012</t>
-        </is>
-      </c>
-      <c r="AA3" s="4" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="AB3" s="5" t="inlineStr">
-        <is>
-          <t>Частное лицо</t>
+      <c r="K3" t="n">
+        <v>6196.16</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6571.53</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5163.46</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5476.28</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10639.74</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2065.4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>12767.69</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>ВІЙСЬКОВА ЧАСТИНА Р9025</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>ВІЙСЬКОВА ЧАСТИНА Р9025</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>+38 (044) 2004753</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>FIAT DOBLO</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>ВС6323СА</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ZFA22300005673034</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>17.08.2022</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>12:49:26</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>Заказ-наряд ЗНGA010284 от 17.08.2022 12:49:26</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>В работе</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>17.08.2022 16:26:58</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="A4" t="n">
+        <v>67</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>31.07.2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:18:11</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026867 від 31.07.2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>В роботі</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>31.07.2024 10:33:11</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Діагностика</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Гуляйгродський В.Ю.</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Не проведен</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1360.79</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>1924.55</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1133.99</v>
-      </c>
-      <c r="N4" s="5" t="n">
-        <v>1603.79</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>2737.78</v>
-      </c>
-      <c r="P4" s="5" t="n">
-        <v>453.6</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>3285.34</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>3.433</v>
-      </c>
-      <c r="S4" s="4" t="inlineStr">
-        <is>
-          <t>НОРДІК-БУД ТзОВ</t>
-        </is>
-      </c>
-      <c r="T4" s="5" t="inlineStr">
-        <is>
-          <t>НОРДІК-БУД ТзОВ</t>
-        </is>
-      </c>
-      <c r="U4" s="4" t="inlineStr">
-        <is>
-          <t>+38 (097) 869-53-78</t>
-        </is>
-      </c>
-      <c r="V4" s="5" t="inlineStr">
-        <is>
-          <t>Niva 21214 3D 1.7 8V</t>
-        </is>
-      </c>
-      <c r="W4" s="4" t="inlineStr">
-        <is>
-          <t>ВС0561НК</t>
-        </is>
-      </c>
-      <c r="X4" s="5" t="inlineStr">
-        <is>
-          <t>XTA212140J2314419</t>
-        </is>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>60000</v>
-      </c>
-      <c r="Z4" s="5" t="inlineStr">
-        <is>
-          <t>22.10.2018</t>
-        </is>
-      </c>
-      <c r="AA4" s="4" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="AB4" s="5" t="inlineStr">
-        <is>
-          <t>Юридическое лицо</t>
+      <c r="K4" t="n">
+        <v>6223.61</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1276.43</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5186.34</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1063.69</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6250.03</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2074.54</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7500.04</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>БОЙКО РОМАН ІГОРОВИЧ</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>БОЙКО РОМАН ІГОРОВИЧ</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>+38 (068) 7033477</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Sportage 1.6D LX 2WD 7DCT</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>ВС4477СО</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>U5YPG812GML967649</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>59196</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>30.10.2020</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Приватна особа</t>
         </is>
       </c>
     </row>

--- a/DataNV/Гуляйгродський.xlsx
+++ b/DataNV/Гуляйгродський.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026663 від 23.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026663 від 23.07.2024 11:14:26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -720,7 +720,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -734,17 +734,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026853 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026853 від 30.07.2024 15:04:40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Заявка</t>
+          <t>В роботі</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>01.08.2024 11:23:00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>В роботі</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -827,123 +832,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>Юридична особа</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>67</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>31.07.2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>09:18:11</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Наряд-замовлення ЗНGA026867 від 31.07.2024</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>В роботі</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>31.07.2024 10:33:11</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Діагностика</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Гуляйгродський В.Ю.</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Не проведен</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>6223.61</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1276.43</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5186.34</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1063.69</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6250.03</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2074.54</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7500.04</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>БОЙКО РОМАН ІГОРОВИЧ</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>БОЙКО РОМАН ІГОРОВИЧ</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>+38 (068) 7033477</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Sportage 1.6D LX 2WD 7DCT</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>ВС4477СО</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>U5YPG812GML967649</t>
-        </is>
-      </c>
-      <c r="Y4" t="n">
-        <v>59196</v>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>30.10.2020</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>Приватна особа</t>
         </is>
       </c>
     </row>
